--- a/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-15,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,66</t>
+          <t>-15,02; 12,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,21</t>
+          <t>-22,32; -2,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,0</t>
+          <t>-7,82; 34,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,91</t>
+          <t>-27,1; 8,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,31</t>
+          <t>-32,48; 0,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 3,43</t>
+          <t>-25,43; 13,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,4</t>
+          <t>-16,45; 6,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,28</t>
+          <t>-22,21; -2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,24</t>
+          <t>-11,73; 15,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-42,0%</t>
+          <t>-44,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,4%</t>
+          <t>-77,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-30,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,22%</t>
+          <t>-84,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 85,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 42,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 99,44</t>
+          <t>-100,0; 1188,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -5,25</t>
+          <t>-100,0; 107,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -0,8</t>
+          <t>-100,0; 284,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 29,36</t>
+          <t>-84,8; 205,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 13,81</t>
+          <t>-83,37; 88,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,91; -1,4</t>
+          <t>-100,0; 24,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 42,02</t>
+          <t>-62,91; 220,44</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 7,88</t>
+          <t>-2,77; 6,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,61</t>
+          <t>-5,97; 3,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 9,3</t>
+          <t>-1,92; 8,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,48</t>
+          <t>-11,14; -0,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,25</t>
+          <t>-10,75; -0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,44</t>
+          <t>-7,92; 3,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,75</t>
+          <t>-5,35; 1,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,64</t>
+          <t>-6,82; -0,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,6</t>
+          <t>-3,14; 4,24</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>-42,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-41,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,76%</t>
+          <t>-16,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-30,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 141,6</t>
+          <t>-23,36; 85,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 120,05</t>
+          <t>-46,98; 42,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 154,92</t>
+          <t>-15,48; 99,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 98,19</t>
+          <t>-63,77; -5,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 63,43</t>
+          <t>-64,25; -0,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 19,71</t>
+          <t>-46,62; 29,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 82,66</t>
+          <t>-39,07; 13,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 60,0</t>
+          <t>-48,91; -1,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 45,58</t>
+          <t>-22,37; 42,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-15,49</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,94</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-3,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 12,83</t>
+          <t>-6,88; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -2,39</t>
+          <t>-6,42; 5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 34,04</t>
+          <t>-9,36; 0,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 8,43</t>
+          <t>-5,53; 4,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 0,46</t>
+          <t>-1,85; 8,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 13,93</t>
+          <t>-6,12; 3,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 6,99</t>
+          <t>-4,68; 2,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -2,88</t>
+          <t>-2,23; 5,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 15,83</t>
+          <t>-6,92; 0,16</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>-43,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,73%</t>
+          <t>-8,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-77,11%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>-17,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-84,72%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>-32,22%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,86; 50,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,5; 79,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1188,33</t>
+          <t>-71,29; 15,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,04</t>
+          <t>-51,12; 75,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 284,08</t>
+          <t>-16,69; 150,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,8; 205,5</t>
+          <t>-57,74; 68,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,37; 88,47</t>
+          <t>-40,41; 35,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 24,88</t>
+          <t>-20,94; 73,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,91; 220,44</t>
+          <t>-58,75; 4,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,86</t>
+          <t>-1,46; 7,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,51</t>
+          <t>-2,29; 6,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,75</t>
+          <t>-1,33; 9,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,36</t>
+          <t>-2,93; 8,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,55</t>
+          <t>-5,28; 5,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,71</t>
+          <t>-8,99; 1,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,66</t>
+          <t>-0,71; 6,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,54</t>
+          <t>-2,85; 4,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,16</t>
+          <t>-3,93; 3,6</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,27%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-33,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-32,22%</t>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 50,63</t>
+          <t>-15,54; 141,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 79,33</t>
+          <t>-24,33; 120,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 15,53</t>
+          <t>-17,1; 154,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 75,37</t>
+          <t>-21,88; 98,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 150,27</t>
+          <t>-39,56; 63,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,74; 68,88</t>
+          <t>-64,44; 19,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 35,1</t>
+          <t>-7,79; 82,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 73,9</t>
+          <t>-24,31; 60,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 4,1</t>
+          <t>-34,51; 45,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 12,83</t>
+          <t>-15,11; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -2,39</t>
+          <t>-23,75; -2,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 34,04</t>
+          <t>-8,22; 32,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 8,43</t>
+          <t>-26,4; 11,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 0,46</t>
+          <t>-33,06; 0,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 13,93</t>
+          <t>-25,15; 15,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 6,99</t>
+          <t>-17,57; 6,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -2,88</t>
+          <t>-22,93; -2,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 15,83</t>
+          <t>-11,01; 15,08</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1188,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,04</t>
+          <t>-88,57; 148,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 284,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,8; 205,5</t>
+          <t>-84,22; 194,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-83,37; 88,47</t>
+          <t>-86,42; 91,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 24,88</t>
+          <t>-100,0; 89,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,91; 220,44</t>
+          <t>-61,45; 184,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 9,54</t>
+          <t>-3,52; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,33</t>
+          <t>-5,71; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 12,86</t>
+          <t>-2,42; 13,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 7,98</t>
+          <t>-6,38; 7,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 1,71</t>
+          <t>-10,36; 1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 8,76</t>
+          <t>-5,91; 8,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,76</t>
+          <t>-3,12; 6,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,94</t>
+          <t>-5,97; 2,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,36</t>
+          <t>-1,59; 8,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 139,03</t>
+          <t>-29,26; 145,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 92,61</t>
+          <t>-44,96; 110,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 184,86</t>
+          <t>-23,0; 196,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 119,55</t>
+          <t>-48,75; 102,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 27,33</t>
+          <t>-76,82; 26,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 121,72</t>
+          <t>-40,22; 132,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 86,08</t>
+          <t>-25,59; 83,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 38,47</t>
+          <t>-50,49; 38,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 106,77</t>
+          <t>-14,82; 103,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,66</t>
+          <t>-3,02; 6,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,21</t>
+          <t>-5,98; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,0</t>
+          <t>-1,9; 7,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,91</t>
+          <t>-10,93; -0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,31</t>
+          <t>-10,71; -0,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 3,43</t>
+          <t>-7,21; 3,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,4</t>
+          <t>-5,31; 1,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,28</t>
+          <t>-6,83; -0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,24</t>
+          <t>-3,11; 4,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 85,49</t>
+          <t>-23,94; 77,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 42,74</t>
+          <t>-46,52; 40,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 99,44</t>
+          <t>-15,92; 100,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -5,25</t>
+          <t>-64,93; -7,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -0,8</t>
+          <t>-63,61; -5,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 29,36</t>
+          <t>-45,12; 28,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 13,81</t>
+          <t>-38,22; 19,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,91; -1,4</t>
+          <t>-50,28; -5,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 42,02</t>
+          <t>-23,25; 44,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,86</t>
+          <t>-6,87; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,51</t>
+          <t>-6,53; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,75</t>
+          <t>-9,87; 0,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,36</t>
+          <t>-5,24; 4,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,55</t>
+          <t>-2,29; 8,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,71</t>
+          <t>-6,13; 3,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,66</t>
+          <t>-4,73; 2,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,54</t>
+          <t>-2,53; 4,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,16</t>
+          <t>-6,27; 0,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 50,63</t>
+          <t>-50,12; 44,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 79,33</t>
+          <t>-47,25; 66,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 15,53</t>
+          <t>-71,84; 10,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 75,37</t>
+          <t>-48,79; 76,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 150,27</t>
+          <t>-22,85; 146,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,74; 68,88</t>
+          <t>-56,08; 71,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 35,1</t>
+          <t>-41,02; 34,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 73,9</t>
+          <t>-22,33; 65,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 4,1</t>
+          <t>-56,04; 8,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 7,88</t>
+          <t>-1,81; 7,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,61</t>
+          <t>-2,59; 7,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 9,3</t>
+          <t>-1,46; 9,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,48</t>
+          <t>-3,1; 7,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,25</t>
+          <t>-5,67; 4,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,44</t>
+          <t>-8,91; 1,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,75</t>
+          <t>-0,77; 6,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,64</t>
+          <t>-2,38; 4,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,6</t>
+          <t>-3,47; 3,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 141,6</t>
+          <t>-18,84; 129,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 120,05</t>
+          <t>-24,56; 124,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 154,92</t>
+          <t>-15,23; 163,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 98,19</t>
+          <t>-22,18; 87,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 63,43</t>
+          <t>-41,68; 54,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 19,71</t>
+          <t>-64,86; 17,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 82,66</t>
+          <t>-7,17; 88,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 60,0</t>
+          <t>-22,08; 56,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 45,58</t>
+          <t>-31,66; 44,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,03</t>
+          <t>-1,24; 3,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,26</t>
+          <t>-2,33; 2,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,59</t>
+          <t>-0,66; 4,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,46</t>
+          <t>-3,96; 1,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,3</t>
+          <t>-5,02; 0,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,6</t>
+          <t>-4,9; 0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,11</t>
+          <t>-1,7; 1,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,66</t>
+          <t>-3,02; 0,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,92</t>
+          <t>-2,05; 1,87</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 47,33</t>
+          <t>-11,44; 48,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 27,52</t>
+          <t>-22,27; 30,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 54,67</t>
+          <t>-5,91; 59,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 14,37</t>
+          <t>-30,5; 16,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 3,48</t>
+          <t>-38,78; 6,61</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 6,72</t>
+          <t>-37,76; 5,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 21,92</t>
+          <t>-14,87; 20,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 7,18</t>
+          <t>-26,58; 7,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 19,86</t>
+          <t>-17,56; 19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 13,29</t>
+          <t>-13,83; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -2,33</t>
+          <t>-23,7; -2,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 32,78</t>
+          <t>-8,21; 34,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 11,9</t>
+          <t>-26,7; 10,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 0,89</t>
+          <t>-30,82; 1,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 15,61</t>
+          <t>-24,91; 13,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 6,16</t>
+          <t>-16,6; 5,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,93; -2,19</t>
+          <t>-22,87; -3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 15,08</t>
+          <t>-10,7; 15,69</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,57; 148,78</t>
+          <t>-100,0; 148,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 163,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,22; 194,49</t>
+          <t>-85,4; 132,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 91,97</t>
+          <t>-84,89; 82,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,14</t>
+          <t>-100,0; 20,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 184,71</t>
+          <t>-60,18; 194,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 8,91</t>
+          <t>-3,17; 8,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,91</t>
+          <t>-5,28; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 13,0</t>
+          <t>-2,33; 12,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,28</t>
+          <t>-6,17; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 1,88</t>
+          <t>-10,73; 1,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,71</t>
+          <t>-5,61; 8,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,45</t>
+          <t>-2,57; 6,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,76</t>
+          <t>-6,25; 2,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,33</t>
+          <t>-1,55; 8,11</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 145,99</t>
+          <t>-25,63; 139,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 110,49</t>
+          <t>-45,67; 101,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 196,75</t>
+          <t>-18,22; 181,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 102,55</t>
+          <t>-47,12; 101,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 26,08</t>
+          <t>-76,39; 28,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 132,09</t>
+          <t>-40,81; 116,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 83,85</t>
+          <t>-24,34; 77,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 38,97</t>
+          <t>-51,72; 33,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 103,66</t>
+          <t>-13,46; 101,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,36</t>
+          <t>-3,29; 6,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,97</t>
+          <t>-5,87; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 7,81</t>
+          <t>-2,44; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -0,95</t>
+          <t>-10,71; -1,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,71</t>
+          <t>-10,48; -0,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,32</t>
+          <t>-7,61; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,96</t>
+          <t>-5,6; 1,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -0,56</t>
+          <t>-7,12; -0,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,39</t>
+          <t>-3,03; 4,08</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 77,31</t>
+          <t>-26,82; 84,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 40,91</t>
+          <t>-50,06; 39,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 100,52</t>
+          <t>-18,68; 99,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -7,92</t>
+          <t>-64,43; -8,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,61; -5,21</t>
+          <t>-62,9; -1,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 28,82</t>
+          <t>-45,79; 25,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 19,36</t>
+          <t>-39,45; 12,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,28; -5,31</t>
+          <t>-51,72; -3,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 44,36</t>
+          <t>-22,87; 39,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,62</t>
+          <t>-6,78; 3,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,98</t>
+          <t>-6,33; 4,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 0,3</t>
+          <t>-9,95; 0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 4,18</t>
+          <t>-5,49; 3,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 8,71</t>
+          <t>-1,83; 8,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 3,44</t>
+          <t>-6,54; 4,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,59</t>
+          <t>-4,77; 2,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,91</t>
+          <t>-2,81; 5,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,55</t>
+          <t>-6,45; 0,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 44,99</t>
+          <t>-47,8; 51,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 66,94</t>
+          <t>-46,36; 58,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 10,97</t>
+          <t>-72,47; 13,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 76,25</t>
+          <t>-51,62; 65,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 146,18</t>
+          <t>-18,63; 146,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 71,29</t>
+          <t>-59,05; 74,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 34,27</t>
+          <t>-41,91; 30,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 65,51</t>
+          <t>-23,81; 69,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 8,85</t>
+          <t>-56,68; 13,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,44</t>
+          <t>-2,18; 7,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,1</t>
+          <t>-2,31; 7,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 9,12</t>
+          <t>-0,84; 9,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 7,8</t>
+          <t>-3,14; 8,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,62</t>
+          <t>-5,86; 4,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 1,26</t>
+          <t>-8,88; 1,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,79</t>
+          <t>-0,52; 6,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,49</t>
+          <t>-2,18; 4,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,47</t>
+          <t>-3,56; 3,78</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 129,85</t>
+          <t>-21,68; 137,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 124,24</t>
+          <t>-25,08; 127,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 163,15</t>
+          <t>-11,1; 157,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 87,89</t>
+          <t>-23,06; 95,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 54,46</t>
+          <t>-41,0; 57,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,86; 17,05</t>
+          <t>-62,55; 16,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 88,85</t>
+          <t>-4,84; 79,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 56,27</t>
+          <t>-19,68; 61,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 44,89</t>
+          <t>-32,6; 46,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,89</t>
+          <t>-0,82; 4,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,44</t>
+          <t>-2,75; 2,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,77</t>
+          <t>-0,92; 4,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,69</t>
+          <t>-3,96; 1,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,59</t>
+          <t>-4,88; 0,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,54</t>
+          <t>-5,16; 0,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,92</t>
+          <t>-1,73; 2,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,69</t>
+          <t>-3,17; 0,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,87</t>
+          <t>-1,89; 2,07</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 48,84</t>
+          <t>-8,19; 50,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 30,3</t>
+          <t>-25,69; 27,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 59,62</t>
+          <t>-9,37; 56,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 16,83</t>
+          <t>-30,93; 15,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 6,61</t>
+          <t>-38,04; 4,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 5,46</t>
+          <t>-38,61; 2,69</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 20,24</t>
+          <t>-15,07; 23,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 7,34</t>
+          <t>-27,39; 7,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 19,86</t>
+          <t>-16,64; 21,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,49</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,94</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 13,93</t>
+          <t>-6,96; 5,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -2,39</t>
+          <t>-11,23; 0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 34,26</t>
+          <t>-5,89; 7,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 10,93</t>
+          <t>-3,87; 7,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 1,86</t>
+          <t>-6,3; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 13,07</t>
+          <t>-2,26; 11,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 5,28</t>
+          <t>-3,82; 4,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -3,76</t>
+          <t>-7,22; 0,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 15,69</t>
+          <t>-2,68; 7,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-49,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-44,73%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-77,11%</t>
+          <t>-13,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-84,72%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>22,1%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,22; 71,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,59; 10,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,14; 77,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 148,4</t>
+          <t>-32,86; 118,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,86</t>
+          <t>-54,7; 68,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,4; 132,85</t>
+          <t>-21,66; 165,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,89; 82,67</t>
+          <t>-29,95; 55,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,0</t>
+          <t>-55,51; 6,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 194,06</t>
+          <t>-21,92; 82,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,74</t>
+          <t>-11,14; -0,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 6,58</t>
+          <t>-10,75; -0,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 12,39</t>
+          <t>-8,22; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 7,16</t>
+          <t>-2,77; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 1,74</t>
+          <t>-5,97; 3,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 8,16</t>
+          <t>-2,37; 7,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,27</t>
+          <t>-5,35; 1,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,48</t>
+          <t>-6,82; -0,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,11</t>
+          <t>-3,36; 4,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>-42,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-41,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,69%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,12%</t>
+          <t>-30,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 139,15</t>
+          <t>-63,77; -5,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 101,1</t>
+          <t>-64,25; -0,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 181,93</t>
+          <t>-47,5; 28,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 101,94</t>
+          <t>-23,36; 85,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,39; 28,97</t>
+          <t>-46,98; 42,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 116,88</t>
+          <t>-17,58; 95,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 77,65</t>
+          <t>-39,07; 13,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,72; 33,39</t>
+          <t>-48,91; -1,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 101,48</t>
+          <t>-23,67; 39,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-3,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 6,41</t>
+          <t>-5,53; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,07</t>
+          <t>-1,85; 8,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,85</t>
+          <t>-7,16; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -1,05</t>
+          <t>-6,88; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -0,36</t>
+          <t>-6,42; 5,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,93</t>
+          <t>-9,68; 0,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,31</t>
+          <t>-4,68; 2,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -0,42</t>
+          <t>-2,23; 5,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,08</t>
+          <t>-7,44; -0,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>-8,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>-29,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-42,0%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,4%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-46,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-30,22%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>-39,3%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 84,29</t>
+          <t>-51,12; 75,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 39,76</t>
+          <t>-16,69; 150,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 99,7</t>
+          <t>-67,11; 42,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,43; -8,75</t>
+          <t>-50,86; 50,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,9; -1,8</t>
+          <t>-46,5; 79,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 25,73</t>
+          <t>-73,19; 8,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 12,71</t>
+          <t>-40,41; 35,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -3,15</t>
+          <t>-20,94; 73,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 39,9</t>
+          <t>-63,26; -6,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 3,77</t>
+          <t>-2,93; 8,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,29</t>
+          <t>-5,28; 5,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 0,83</t>
+          <t>-9,26; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 3,98</t>
+          <t>-1,46; 7,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 8,62</t>
+          <t>-2,29; 6,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,02</t>
+          <t>-1,61; 8,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,31</t>
+          <t>-0,71; 6,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,23</t>
+          <t>-2,85; 4,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,94</t>
+          <t>-4,0; 3,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,27%</t>
+          <t>-35,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-32,22%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 51,55</t>
+          <t>-21,88; 98,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 58,01</t>
+          <t>-39,56; 63,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,47; 13,64</t>
+          <t>-65,48; 16,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 65,26</t>
+          <t>-15,54; 141,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 146,11</t>
+          <t>-24,33; 120,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 74,76</t>
+          <t>-19,29; 148,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 30,52</t>
+          <t>-7,79; 82,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 69,46</t>
+          <t>-24,31; 60,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,68; 13,26</t>
+          <t>-35,39; 41,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,79</t>
+          <t>-3,92; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,11</t>
+          <t>-4,95; 0,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,18</t>
+          <t>-5,21; 0,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 8,55</t>
+          <t>-0,86; 4,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,79</t>
+          <t>-2,58; 2,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 1,07</t>
+          <t>-1,31; 4,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,32</t>
+          <t>-1,77; 2,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,94</t>
+          <t>-3,12; 0,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,78</t>
+          <t>-2,47; 1,4</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>-22,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-33,76%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-10,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-4,78%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 137,67</t>
+          <t>-30,1; 14,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 127,09</t>
+          <t>-38,25; 3,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 157,54</t>
+          <t>-40,98; 1,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 95,13</t>
+          <t>-9,16; 47,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 57,12</t>
+          <t>-25,15; 27,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,55; 16,09</t>
+          <t>-12,65; 49,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 79,81</t>
+          <t>-15,13; 21,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 61,21</t>
+          <t>-26,87; 7,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 46,86</t>
+          <t>-21,77; 14,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 4,18</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 2,29</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 4,66</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 1,6</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 0,5</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 0,31</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 2,14</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 0,71</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 2,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-1,47%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>20,14%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-10,45%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-19,08%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-18,59%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-10,95%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 50,53</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-25,69; 27,18</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 56,29</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-30,93; 15,53</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-38,04; 4,96</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-38,61; 2,69</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-15,07; 23,1</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-27,39; 7,65</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 21,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
